--- a/maps/LaboratoryTestResult-Specimen.xlsx
+++ b/maps/LaboratoryTestResult-Specimen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/wouter_zanen_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{E744C72E-BFD8-474A-B092-FB5BD4AA1ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82F5A241-44DD-4F1B-A1D9-64BF6BC4E9D7}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{E744C72E-BFD8-474A-B092-FB5BD4AA1ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCB593F2-A745-435B-8F73-CA0C9B3290AB}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26025" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>LaboratoryTestResult.Specimen</t>
   </si>
   <si>
-    <t>LaboratoryTestResult.Comment</t>
-  </si>
-  <si>
     <t>EHDSSpecimen</t>
   </si>
   <si>
@@ -129,28 +126,31 @@
     <t>EHDSSpecimen.container.containerDevice</t>
   </si>
   <si>
-    <t>LaboratoryTestResult.SpecimenId</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.SpecimenMaterial</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.AnatomicalLocation</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.ContainerType</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.SpecimenSource</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.SpecimenNumberExtension</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.Microorganism</t>
-  </si>
-  <si>
-    <t>LaboratoryTestResult.Morphology</t>
+    <t>LaboratoryTestResult.Specimen.SpecimenId</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.Specimen.SpecimenMaterial</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.Specimen.AnatomicalLocation</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.Specimen.SpecimenSource</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.Specimen.ContainerType</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.Specimen.SpecimenNumberExtension</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.Specimen.Microorganism</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.Specimen.Morphology</t>
+  </si>
+  <si>
+    <t>LaboratoryTestResult.Specimen.Comment</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -571,83 +571,83 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>37</v>
@@ -655,22 +655,22 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -688,18 +688,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3af30693-c405-4a5b-908a-bd1dc294f76b" xsi:nil="true"/>
-    <Inhoud xmlns="b19602bd-a67a-4df8-b412-b401dd608f7a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b19602bd-a67a-4df8-b412-b401dd608f7a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BAFAE49EF5FC2A44A9A24B379C77993A" ma:contentTypeVersion="18" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="4e3f09d53704208a567efd423a8e8ffb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b19602bd-a67a-4df8-b412-b401dd608f7a" xmlns:ns3="3af30693-c405-4a5b-908a-bd1dc294f76b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e8dd9eed0ce6952e5fe39cbc0c50bd" ns2:_="" ns3:_="">
     <xsd:import namespace="b19602bd-a67a-4df8-b412-b401dd608f7a"/>
@@ -956,6 +944,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3af30693-c405-4a5b-908a-bd1dc294f76b" xsi:nil="true"/>
+    <Inhoud xmlns="b19602bd-a67a-4df8-b412-b401dd608f7a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b19602bd-a67a-4df8-b412-b401dd608f7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0E272B-3645-4028-A960-0B8D0057D9EE}">
   <ds:schemaRefs>
@@ -965,23 +965,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{150E1455-19EB-4AC0-BA9D-EE9CBCC1FEFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b19602bd-a67a-4df8-b412-b401dd608f7a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3af30693-c405-4a5b-908a-bd1dc294f76b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{569FF7CE-CFE6-4FA6-80F1-6CFE45CA983A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -998,4 +981,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{150E1455-19EB-4AC0-BA9D-EE9CBCC1FEFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b19602bd-a67a-4df8-b412-b401dd608f7a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3af30693-c405-4a5b-908a-bd1dc294f76b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>